--- a/global_data/day_data/603009.xlsx
+++ b/global_data/day_data/603009.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2542"/>
+  <dimension ref="A1:I2544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -74126,6 +74128,64 @@
         <v>0.04027901210774643</v>
       </c>
     </row>
+    <row r="2543" spans="1:9">
+      <c r="A2543" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B2543">
+        <v>44.47</v>
+      </c>
+      <c r="C2543">
+        <v>44.95</v>
+      </c>
+      <c r="D2543">
+        <v>43.22</v>
+      </c>
+      <c r="E2543">
+        <v>44.01</v>
+      </c>
+      <c r="F2543">
+        <v>12166481</v>
+      </c>
+      <c r="G2543">
+        <v>536671417</v>
+      </c>
+      <c r="H2543">
+        <v>338408970</v>
+      </c>
+      <c r="I2543">
+        <v>0.03595200505471235</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:9">
+      <c r="A2544" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B2544">
+        <v>43.9</v>
+      </c>
+      <c r="C2544">
+        <v>46.2</v>
+      </c>
+      <c r="D2544">
+        <v>43.5</v>
+      </c>
+      <c r="E2544">
+        <v>45.66</v>
+      </c>
+      <c r="F2544">
+        <v>15515946</v>
+      </c>
+      <c r="G2544">
+        <v>700428860</v>
+      </c>
+      <c r="H2544">
+        <v>338408970</v>
+      </c>
+      <c r="I2544">
+        <v>0.04584968891338784</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
